--- a/biology/Botanique/Stanhopeinae/Stanhopeinae.xlsx
+++ b/biology/Botanique/Stanhopeinae/Stanhopeinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Stanhopeinae sont une sous-tribu de plantes de la famille des orchidées[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Stanhopeinae sont une sous-tribu de plantes de la famille des orchidées.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sous-tribus au sens strict ont des viscidies et des stipes fins et en forme de sangles, ils sont adaptés pour être attachés au bord du scutellum de l'abeille ou à une jambe. Les pseudobulbes sont généralement côtelés / à quatre angles ou aplatis. Les feuilles sont généralement plus épaisses que les Coeliopsidinae. Les racines sont lisses, sans poils proéminents. Le pied de colonne manque ou n'est pas distinct. Les fleurs non pollinisées s'abscissent rapidement et tombent de l'inflorescence, contrairement aux membres de Coeliopsidinae qui comprennent Coeliopsis, Lycomormium et Peristeria. Stanhopeinae et Coeliopsidinae sont maintenant considérés comme des sous-tribus sœurs étroitement apparentées.
 Toutes les espèces de cette sous-tribu sont exclusivement pollinisées par les abeilles euglossines mâles, qui sont attirées par les parfums floraux, et les collectent. Une espèce d'orchidées peut attirer une seule ou plusieurs espèces d'abeilles parmi les dizaines d'espèces présentes dans son habitat.
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (17 juin 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (17 juin 2023) :
 genre Acineta Lindl., 1843
 genre Braemia Jenny, 1985
 genre Cirrhaea Lindl., 1825
@@ -594,7 +610,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sein des Stanhopeinae, les membres peuvent être regroupés en six clades en fonction des traits morphologiques et de l'analyse moléculaire.
 Clade Braemia : Braemia
